--- a/Codes_Crosswalk.xlsx
+++ b/Codes_Crosswalk.xlsx
@@ -10160,7 +10160,7 @@
         <v>238</v>
       </c>
       <c r="U95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V95" t="n">
         <v>0</v>
@@ -34612,9 +34612,7 @@
       <c r="R446"/>
       <c r="S446"/>
       <c r="T446"/>
-      <c r="U446" t="n">
-        <v>0</v>
-      </c>
+      <c r="U446"/>
       <c r="V446" t="n">
         <v>0</v>
       </c>

--- a/Codes_Crosswalk.xlsx
+++ b/Codes_Crosswalk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc9855b04cee0f8c/Software/Codes-Crosswalk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_C0AE3455BDC364B42922FC98B5527A68E35745DC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A239513-5366-42DE-A528-A21F5EF8D04E}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_C0AE3455BDC364B42922FC98B5527A68E35745DC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDEF8BFF-68B9-4FB7-8CE5-9AA2618E8DE8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4295" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4304" uniqueCount="1042">
   <si>
     <t>ISO3166.3</t>
   </si>
@@ -3145,6 +3145,9 @@
   </si>
   <si>
     <t>Bonaire, Saint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>Occupied Palestinian Territory</t>
   </si>
 </sst>
 </file>
@@ -3164,6 +3167,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3489,7 +3493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y447"/>
+  <dimension ref="A1:Y448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24175,7 +24179,7 @@
         <v>756</v>
       </c>
       <c r="C311" t="s">
-        <v>757</v>
+        <v>1041</v>
       </c>
       <c r="D311" t="s">
         <v>37</v>
@@ -24237,7 +24241,7 @@
         <v>756</v>
       </c>
       <c r="C312" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D312" t="s">
         <v>37</v>
@@ -24299,7 +24303,7 @@
         <v>756</v>
       </c>
       <c r="C313" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D313" t="s">
         <v>37</v>
@@ -24361,7 +24365,7 @@
         <v>756</v>
       </c>
       <c r="C314" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D314" t="s">
         <v>37</v>
@@ -24423,7 +24427,7 @@
         <v>756</v>
       </c>
       <c r="C315" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D315" t="s">
         <v>37</v>
@@ -24485,7 +24489,7 @@
         <v>756</v>
       </c>
       <c r="C316" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D316" t="s">
         <v>37</v>
@@ -24541,28 +24545,28 @@
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B317" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="C317" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D317" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="E317">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F317" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G317">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="J317">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="K317">
         <v>0</v>
@@ -24571,16 +24575,19 @@
         <v>0</v>
       </c>
       <c r="M317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N317" t="s">
         <v>31</v>
       </c>
+      <c r="O317" t="s">
+        <v>68</v>
+      </c>
       <c r="P317" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="Q317" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="U317">
         <v>0</v>
@@ -24589,13 +24596,13 @@
         <v>0</v>
       </c>
       <c r="W317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X317">
-        <v>-140</v>
+        <v>35.277999999999999</v>
       </c>
       <c r="Y317">
-        <v>-15</v>
+        <v>32.036999999999999</v>
       </c>
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.35">
@@ -24606,7 +24613,7 @@
         <v>764</v>
       </c>
       <c r="C318" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D318" t="s">
         <v>97</v>
@@ -24659,28 +24666,28 @@
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B319" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C319" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D319" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E319">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="F319" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G319">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="J319">
-        <v>634</v>
+        <v>258</v>
       </c>
       <c r="K319">
         <v>0</v>
@@ -24689,22 +24696,16 @@
         <v>0</v>
       </c>
       <c r="M319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N319" t="s">
         <v>31</v>
       </c>
-      <c r="O319" t="s">
-        <v>74</v>
-      </c>
       <c r="P319" t="s">
         <v>32</v>
       </c>
       <c r="Q319" t="s">
-        <v>83</v>
-      </c>
-      <c r="T319">
-        <v>453</v>
+        <v>99</v>
       </c>
       <c r="U319">
         <v>0</v>
@@ -24713,45 +24714,39 @@
         <v>0</v>
       </c>
       <c r="W319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X319">
-        <v>51.25</v>
+        <v>-140</v>
       </c>
       <c r="Y319">
-        <v>25.5</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="320" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B320" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C320" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D320" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E320">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F320" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G320">
-        <v>202</v>
-      </c>
-      <c r="H320" t="s">
-        <v>107</v>
-      </c>
-      <c r="I320">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="J320">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="K320">
         <v>0</v>
@@ -24765,6 +24760,18 @@
       <c r="N320" t="s">
         <v>31</v>
       </c>
+      <c r="O320" t="s">
+        <v>74</v>
+      </c>
+      <c r="P320" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>83</v>
+      </c>
+      <c r="T320">
+        <v>453</v>
+      </c>
       <c r="U320">
         <v>0</v>
       </c>
@@ -24772,13 +24779,13 @@
         <v>0</v>
       </c>
       <c r="W320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X320">
-        <v>55.6</v>
+        <v>51.25</v>
       </c>
       <c r="Y320">
-        <v>-21.1</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="321" spans="1:25" x14ac:dyDescent="0.35">
@@ -24789,7 +24796,7 @@
         <v>771</v>
       </c>
       <c r="C321" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D321" t="s">
         <v>48</v>
@@ -24842,28 +24849,34 @@
     </row>
     <row r="322" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B322" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C322" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D322" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E322">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F322" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="G322">
-        <v>151</v>
+        <v>202</v>
+      </c>
+      <c r="H322" t="s">
+        <v>107</v>
+      </c>
+      <c r="I322">
+        <v>14</v>
       </c>
       <c r="J322">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K322">
         <v>0</v>
@@ -24875,45 +24888,33 @@
         <v>0</v>
       </c>
       <c r="N322" t="s">
-        <v>63</v>
-      </c>
-      <c r="O322" t="s">
-        <v>74</v>
-      </c>
-      <c r="P322" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q322" t="s">
-        <v>70</v>
-      </c>
-      <c r="R322" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="U322">
         <v>0</v>
       </c>
       <c r="V322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W322">
         <v>0</v>
       </c>
       <c r="X322">
-        <v>25</v>
+        <v>55.6</v>
       </c>
       <c r="Y322">
-        <v>46</v>
+        <v>-21.1</v>
       </c>
     </row>
     <row r="323" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B323" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C323" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D323" t="s">
         <v>61</v>
@@ -24928,7 +24929,7 @@
         <v>151</v>
       </c>
       <c r="J323">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K323">
         <v>0</v>
@@ -24946,7 +24947,7 @@
         <v>74</v>
       </c>
       <c r="P323" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="Q323" t="s">
         <v>70</v>
@@ -24954,23 +24955,20 @@
       <c r="R323" t="s">
         <v>53</v>
       </c>
-      <c r="T323">
-        <v>922</v>
-      </c>
       <c r="U323">
         <v>0</v>
       </c>
       <c r="V323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W323">
         <v>0</v>
       </c>
       <c r="X323">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="Y323">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.35">
@@ -24981,7 +24979,7 @@
         <v>778</v>
       </c>
       <c r="C324" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D324" t="s">
         <v>61</v>
@@ -25043,64 +25041,55 @@
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B325" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C325" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D325" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E325">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F325" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="G325">
-        <v>202</v>
-      </c>
-      <c r="H325" t="s">
-        <v>107</v>
-      </c>
-      <c r="I325">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="J325">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M325">
         <v>0</v>
       </c>
       <c r="N325" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="O325" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="P325" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="Q325" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="R325" t="s">
-        <v>42</v>
-      </c>
-      <c r="S325" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="T325">
-        <v>714</v>
+        <v>922</v>
       </c>
       <c r="U325">
         <v>0</v>
@@ -25112,42 +25101,48 @@
         <v>0</v>
       </c>
       <c r="X325">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="Y325">
-        <v>-2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="326" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B326" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C326" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D326" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E326">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F326" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="G326">
-        <v>145</v>
+        <v>202</v>
+      </c>
+      <c r="H326" t="s">
+        <v>107</v>
+      </c>
+      <c r="I326">
+        <v>14</v>
       </c>
       <c r="J326">
-        <v>682</v>
+        <v>646</v>
       </c>
       <c r="K326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M326">
         <v>0</v>
@@ -25156,16 +25151,22 @@
         <v>31</v>
       </c>
       <c r="O326" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="P326" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q326" t="s">
-        <v>83</v>
+        <v>49</v>
+      </c>
+      <c r="R326" t="s">
+        <v>42</v>
+      </c>
+      <c r="S326" t="s">
+        <v>43</v>
       </c>
       <c r="T326">
-        <v>456</v>
+        <v>714</v>
       </c>
       <c r="U326">
         <v>0</v>
@@ -25174,39 +25175,63 @@
         <v>0</v>
       </c>
       <c r="W326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X326">
-        <v>44.585000000000001</v>
+        <v>30</v>
       </c>
       <c r="Y326">
-        <v>24.023</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B327" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C327" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D327" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E327">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F327" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G327">
-        <v>39</v>
+        <v>145</v>
+      </c>
+      <c r="J327">
+        <v>682</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+      <c r="M327">
+        <v>0</v>
+      </c>
+      <c r="N327" t="s">
+        <v>31</v>
+      </c>
+      <c r="O327" t="s">
+        <v>74</v>
+      </c>
+      <c r="P327" t="s">
+        <v>32</v>
       </c>
       <c r="Q327" t="s">
-        <v>70</v>
+        <v>83</v>
+      </c>
+      <c r="T327">
+        <v>456</v>
       </c>
       <c r="U327">
         <v>0</v>
@@ -25215,63 +25240,39 @@
         <v>0</v>
       </c>
       <c r="W327">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="X327">
+        <v>44.585000000000001</v>
+      </c>
+      <c r="Y327">
+        <v>24.023</v>
       </c>
     </row>
     <row r="328" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B328" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C328" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D328" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E328">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F328" t="s">
-        <v>314</v>
+        <v>67</v>
       </c>
       <c r="G328">
-        <v>15</v>
-      </c>
-      <c r="J328">
-        <v>729</v>
-      </c>
-      <c r="K328">
-        <v>1</v>
-      </c>
-      <c r="L328">
-        <v>0</v>
-      </c>
-      <c r="M328">
-        <v>0</v>
-      </c>
-      <c r="N328" t="s">
-        <v>31</v>
-      </c>
-      <c r="O328" t="s">
         <v>39</v>
       </c>
-      <c r="P328" t="s">
-        <v>40</v>
-      </c>
       <c r="Q328" t="s">
-        <v>49</v>
-      </c>
-      <c r="R328" t="s">
-        <v>42</v>
-      </c>
-      <c r="S328" t="s">
-        <v>43</v>
-      </c>
-      <c r="T328">
-        <v>732</v>
+        <v>70</v>
       </c>
       <c r="U328">
         <v>0</v>
@@ -25280,13 +25281,7 @@
         <v>0</v>
       </c>
       <c r="W328">
-        <v>1</v>
-      </c>
-      <c r="X328">
-        <v>30</v>
-      </c>
-      <c r="Y328">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.35">
@@ -25297,7 +25292,7 @@
         <v>791</v>
       </c>
       <c r="C329" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D329" t="s">
         <v>48</v>
@@ -25368,7 +25363,7 @@
         <v>791</v>
       </c>
       <c r="C330" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D330" t="s">
         <v>48</v>
@@ -25433,13 +25428,13 @@
     </row>
     <row r="331" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B331" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C331" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D331" t="s">
         <v>48</v>
@@ -25448,19 +25443,13 @@
         <v>2</v>
       </c>
       <c r="F331" t="s">
-        <v>49</v>
+        <v>314</v>
       </c>
       <c r="G331">
-        <v>202</v>
-      </c>
-      <c r="H331" t="s">
-        <v>137</v>
-      </c>
-      <c r="I331">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J331">
-        <v>686</v>
+        <v>729</v>
       </c>
       <c r="K331">
         <v>1</v>
@@ -25478,7 +25467,7 @@
         <v>39</v>
       </c>
       <c r="P331" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q331" t="s">
         <v>49</v>
@@ -25490,7 +25479,7 @@
         <v>43</v>
       </c>
       <c r="T331">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="U331">
         <v>0</v>
@@ -25499,63 +25488,75 @@
         <v>0</v>
       </c>
       <c r="W331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X331">
-        <v>-14.25</v>
+        <v>30</v>
       </c>
       <c r="Y331">
-        <v>14.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="332" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B332" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C332" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D332" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E332">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F332" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="G332">
-        <v>35</v>
+        <v>202</v>
+      </c>
+      <c r="H332" t="s">
+        <v>137</v>
+      </c>
+      <c r="I332">
+        <v>11</v>
       </c>
       <c r="J332">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="K332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L332">
         <v>0</v>
       </c>
       <c r="M332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N332" t="s">
         <v>31</v>
       </c>
       <c r="O332" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="P332" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="Q332" t="s">
-        <v>99</v>
+        <v>49</v>
+      </c>
+      <c r="R332" t="s">
+        <v>42</v>
+      </c>
+      <c r="S332" t="s">
+        <v>43</v>
       </c>
       <c r="T332">
-        <v>576</v>
+        <v>722</v>
       </c>
       <c r="U332">
         <v>0</v>
@@ -25567,42 +25568,36 @@
         <v>0</v>
       </c>
       <c r="X332">
-        <v>103.85</v>
+        <v>-14.25</v>
       </c>
       <c r="Y332">
-        <v>1.2833000000000001</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="333" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B333" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C333" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D333" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E333">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="F333" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="G333">
-        <v>419</v>
-      </c>
-      <c r="H333" t="s">
-        <v>89</v>
-      </c>
-      <c r="I333">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J333">
-        <v>239</v>
+        <v>702</v>
       </c>
       <c r="K333">
         <v>0</v>
@@ -25611,11 +25606,23 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N333" t="s">
         <v>31</v>
       </c>
+      <c r="O333" t="s">
+        <v>74</v>
+      </c>
+      <c r="P333" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>99</v>
+      </c>
+      <c r="T333">
+        <v>576</v>
+      </c>
       <c r="U333">
         <v>0</v>
       </c>
@@ -25626,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="X333">
-        <v>-36.890999999999998</v>
+        <v>103.85</v>
       </c>
       <c r="Y333">
-        <v>-54.209000000000003</v>
+        <v>1.2833000000000001</v>
       </c>
     </row>
     <row r="334" spans="1:25" x14ac:dyDescent="0.35">
@@ -25640,7 +25647,7 @@
         <v>802</v>
       </c>
       <c r="C334" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D334" t="s">
         <v>28</v>
@@ -25699,7 +25706,7 @@
         <v>802</v>
       </c>
       <c r="C335" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D335" t="s">
         <v>28</v>
@@ -25758,7 +25765,7 @@
         <v>802</v>
       </c>
       <c r="C336" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D336" t="s">
         <v>28</v>
@@ -25817,7 +25824,7 @@
         <v>802</v>
       </c>
       <c r="C337" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D337" t="s">
         <v>28</v>
@@ -25876,7 +25883,7 @@
         <v>802</v>
       </c>
       <c r="C338" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D338" t="s">
         <v>28</v>
@@ -25929,34 +25936,34 @@
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B339" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="C339" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D339" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E339">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F339" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G339">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="H339" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="I339">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J339">
-        <v>654</v>
+        <v>239</v>
       </c>
       <c r="K339">
         <v>0</v>
@@ -25980,10 +25987,10 @@
         <v>0</v>
       </c>
       <c r="X339">
-        <v>-5.71</v>
+        <v>-36.890999999999998</v>
       </c>
       <c r="Y339">
-        <v>-15.952999999999999</v>
+        <v>-54.209000000000003</v>
       </c>
     </row>
     <row r="340" spans="1:25" x14ac:dyDescent="0.35">
@@ -25994,7 +26001,7 @@
         <v>810</v>
       </c>
       <c r="C340" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D340" t="s">
         <v>48</v>
@@ -26053,7 +26060,7 @@
         <v>810</v>
       </c>
       <c r="C341" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D341" t="s">
         <v>48</v>
@@ -26106,28 +26113,34 @@
     </row>
     <row r="342" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B342" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C342" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D342" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E342">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F342" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G342">
-        <v>154</v>
+        <v>202</v>
+      </c>
+      <c r="H342" t="s">
+        <v>137</v>
+      </c>
+      <c r="I342">
+        <v>11</v>
       </c>
       <c r="J342">
-        <v>744</v>
+        <v>654</v>
       </c>
       <c r="K342">
         <v>0</v>
@@ -26139,7 +26152,7 @@
         <v>0</v>
       </c>
       <c r="N342" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="U342">
         <v>0</v>
@@ -26151,10 +26164,10 @@
         <v>0</v>
       </c>
       <c r="X342">
-        <v>20</v>
+        <v>-5.71</v>
       </c>
       <c r="Y342">
-        <v>78</v>
+        <v>-15.952999999999999</v>
       </c>
     </row>
     <row r="343" spans="1:25" x14ac:dyDescent="0.35">
@@ -26165,7 +26178,7 @@
         <v>815</v>
       </c>
       <c r="C343" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D343" t="s">
         <v>61</v>
@@ -26212,55 +26225,40 @@
     </row>
     <row r="344" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B344" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C344" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D344" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E344">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="F344" t="s">
-        <v>345</v>
+        <v>62</v>
       </c>
       <c r="G344">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="J344">
-        <v>90</v>
+        <v>744</v>
       </c>
       <c r="K344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L344">
         <v>0</v>
       </c>
       <c r="M344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N344" t="s">
-        <v>31</v>
-      </c>
-      <c r="O344" t="s">
-        <v>51</v>
-      </c>
-      <c r="P344" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q344" t="s">
-        <v>99</v>
-      </c>
-      <c r="R344" t="s">
-        <v>42</v>
-      </c>
-      <c r="T344">
-        <v>813</v>
+        <v>63</v>
       </c>
       <c r="U344">
         <v>0</v>
@@ -26272,10 +26270,10 @@
         <v>0</v>
       </c>
       <c r="X344">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="Y344">
-        <v>-8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="345" spans="1:25" x14ac:dyDescent="0.35">
@@ -26286,7 +26284,7 @@
         <v>819</v>
       </c>
       <c r="C345" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D345" t="s">
         <v>97</v>
@@ -26348,34 +26346,28 @@
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B346" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C346" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D346" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="E346">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F346" t="s">
-        <v>49</v>
+        <v>345</v>
       </c>
       <c r="G346">
-        <v>202</v>
-      </c>
-      <c r="H346" t="s">
-        <v>137</v>
-      </c>
-      <c r="I346">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="J346">
-        <v>694</v>
+        <v>90</v>
       </c>
       <c r="K346">
         <v>1</v>
@@ -26384,28 +26376,25 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N346" t="s">
         <v>31</v>
       </c>
       <c r="O346" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="P346" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Q346" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="R346" t="s">
         <v>42</v>
       </c>
-      <c r="S346" t="s">
-        <v>43</v>
-      </c>
       <c r="T346">
-        <v>724</v>
+        <v>813</v>
       </c>
       <c r="U346">
         <v>0</v>
@@ -26417,45 +26406,45 @@
         <v>0</v>
       </c>
       <c r="X346">
-        <v>-11.5</v>
+        <v>159</v>
       </c>
       <c r="Y346">
-        <v>8.5</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B347" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C347" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D347" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E347">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F347" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G347">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="H347" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="I347">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J347">
-        <v>222</v>
+        <v>694</v>
       </c>
       <c r="K347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L347">
         <v>0</v>
@@ -26467,19 +26456,22 @@
         <v>31</v>
       </c>
       <c r="O347" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="P347" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q347" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="R347" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="S347" t="s">
+        <v>43</v>
       </c>
       <c r="T347">
-        <v>253</v>
+        <v>724</v>
       </c>
       <c r="U347">
         <v>0</v>
@@ -26491,36 +26483,42 @@
         <v>0</v>
       </c>
       <c r="X347">
-        <v>-88.866</v>
+        <v>-11.5</v>
       </c>
       <c r="Y347">
-        <v>13.736000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="348" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B348" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C348" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D348" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E348">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="F348" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="G348">
-        <v>39</v>
+        <v>419</v>
+      </c>
+      <c r="H348" t="s">
+        <v>179</v>
+      </c>
+      <c r="I348">
+        <v>13</v>
       </c>
       <c r="J348">
-        <v>674</v>
+        <v>222</v>
       </c>
       <c r="K348">
         <v>0</v>
@@ -26532,19 +26530,22 @@
         <v>0</v>
       </c>
       <c r="N348" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="O348" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="P348" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="Q348" t="s">
-        <v>70</v>
+        <v>33</v>
+      </c>
+      <c r="R348" t="s">
+        <v>53</v>
       </c>
       <c r="T348">
-        <v>135</v>
+        <v>253</v>
       </c>
       <c r="U348">
         <v>0</v>
@@ -26556,45 +26557,39 @@
         <v>0</v>
       </c>
       <c r="X348">
-        <v>12.416666666699999</v>
+        <v>-88.866</v>
       </c>
       <c r="Y348">
-        <v>43.933332999999998</v>
+        <v>13.736000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B349" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C349" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D349" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E349">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F349" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G349">
-        <v>202</v>
-      </c>
-      <c r="H349" t="s">
-        <v>107</v>
-      </c>
-      <c r="I349">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J349">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="K349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L349">
         <v>0</v>
@@ -26603,19 +26598,19 @@
         <v>0</v>
       </c>
       <c r="N349" t="s">
-        <v>31</v>
+        <v>63</v>
+      </c>
+      <c r="O349" t="s">
+        <v>74</v>
       </c>
       <c r="P349" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q349" t="s">
-        <v>49</v>
-      </c>
-      <c r="R349" t="s">
-        <v>42</v>
-      </c>
-      <c r="S349" t="s">
-        <v>43</v>
+        <v>70</v>
+      </c>
+      <c r="T349">
+        <v>135</v>
       </c>
       <c r="U349">
         <v>0</v>
@@ -26624,42 +26619,48 @@
         <v>0</v>
       </c>
       <c r="W349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X349">
-        <v>43.340358999999999</v>
+        <v>12.416666666699999</v>
       </c>
       <c r="Y349">
-        <v>11.634563</v>
+        <v>43.933332999999998</v>
       </c>
     </row>
     <row r="350" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B350" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C350" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D350" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E350">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F350" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="G350">
-        <v>21</v>
+        <v>202</v>
+      </c>
+      <c r="H350" t="s">
+        <v>107</v>
+      </c>
+      <c r="I350">
+        <v>14</v>
       </c>
       <c r="J350">
-        <v>666</v>
+        <v>706</v>
       </c>
       <c r="K350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L350">
         <v>0</v>
@@ -26668,7 +26669,19 @@
         <v>0</v>
       </c>
       <c r="N350" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="P350" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>49</v>
+      </c>
+      <c r="R350" t="s">
+        <v>42</v>
+      </c>
+      <c r="S350" t="s">
+        <v>43</v>
       </c>
       <c r="U350">
         <v>0</v>
@@ -26677,13 +26690,13 @@
         <v>0</v>
       </c>
       <c r="W350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X350">
-        <v>-56.333333333299997</v>
+        <v>43.340358999999999</v>
       </c>
       <c r="Y350">
-        <v>46.833333333299997</v>
+        <v>11.634563</v>
       </c>
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.35">
@@ -26694,7 +26707,7 @@
         <v>835</v>
       </c>
       <c r="C351" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D351" t="s">
         <v>28</v>
@@ -26747,7 +26760,7 @@
         <v>835</v>
       </c>
       <c r="C352" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D352" t="s">
         <v>28</v>
@@ -26794,28 +26807,28 @@
     </row>
     <row r="353" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B353" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C353" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D353" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E353">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="F353" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="G353">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="J353">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="K353">
         <v>0</v>
@@ -26829,21 +26842,6 @@
       <c r="N353" t="s">
         <v>63</v>
       </c>
-      <c r="O353" t="s">
-        <v>74</v>
-      </c>
-      <c r="P353" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q353" t="s">
-        <v>70</v>
-      </c>
-      <c r="R353" t="s">
-        <v>53</v>
-      </c>
-      <c r="T353">
-        <v>942</v>
-      </c>
       <c r="U353">
         <v>0</v>
       </c>
@@ -26854,10 +26852,10 @@
         <v>0</v>
       </c>
       <c r="X353">
-        <v>21.066262999999999</v>
+        <v>-56.333333333299997</v>
       </c>
       <c r="Y353">
-        <v>43.138585999999997</v>
+        <v>46.833333333299997</v>
       </c>
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.35">
@@ -26868,7 +26866,7 @@
         <v>840</v>
       </c>
       <c r="C354" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D354" t="s">
         <v>61</v>
@@ -26936,7 +26934,7 @@
         <v>840</v>
       </c>
       <c r="C355" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D355" t="s">
         <v>61</v>
@@ -26998,61 +26996,55 @@
     </row>
     <row r="356" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B356" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C356" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D356" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E356">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F356" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G356">
-        <v>202</v>
-      </c>
-      <c r="H356" t="s">
-        <v>107</v>
-      </c>
-      <c r="I356">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J356">
-        <v>728</v>
+        <v>688</v>
       </c>
       <c r="K356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M356">
         <v>0</v>
       </c>
       <c r="N356" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="O356" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="P356" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="Q356" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="R356" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="T356">
-        <v>733</v>
+        <v>942</v>
       </c>
       <c r="U356">
         <v>0</v>
@@ -27064,21 +27056,21 @@
         <v>0</v>
       </c>
       <c r="X356">
-        <v>30</v>
+        <v>21.066262999999999</v>
       </c>
       <c r="Y356">
-        <v>8</v>
+        <v>43.138585999999997</v>
       </c>
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B357" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C357" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D357" t="s">
         <v>48</v>
@@ -27093,31 +27085,31 @@
         <v>202</v>
       </c>
       <c r="H357" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="I357">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J357">
-        <v>678</v>
+        <v>728</v>
       </c>
       <c r="K357">
         <v>1</v>
       </c>
       <c r="L357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N357" t="s">
         <v>31</v>
       </c>
       <c r="O357" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="P357" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q357" t="s">
         <v>49</v>
@@ -27125,11 +27117,8 @@
       <c r="R357" t="s">
         <v>42</v>
       </c>
-      <c r="S357" t="s">
-        <v>43</v>
-      </c>
       <c r="T357">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="U357">
         <v>0</v>
@@ -27141,10 +27130,10 @@
         <v>0</v>
       </c>
       <c r="X357">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="Y357">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:25" x14ac:dyDescent="0.35">
@@ -27155,7 +27144,7 @@
         <v>848</v>
       </c>
       <c r="C358" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D358" t="s">
         <v>48</v>
@@ -27226,37 +27215,37 @@
     </row>
     <row r="359" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B359" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C359" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D359" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E359">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F359" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G359">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="H359" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="I359">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J359">
-        <v>740</v>
+        <v>678</v>
       </c>
       <c r="K359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L359">
         <v>0</v>
@@ -27268,19 +27257,22 @@
         <v>31</v>
       </c>
       <c r="O359" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="P359" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="Q359" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="R359" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="S359" t="s">
+        <v>43</v>
       </c>
       <c r="T359">
-        <v>366</v>
+        <v>716</v>
       </c>
       <c r="U359">
         <v>0</v>
@@ -27292,36 +27284,42 @@
         <v>0</v>
       </c>
       <c r="X359">
-        <v>-56</v>
+        <v>7</v>
       </c>
       <c r="Y359">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B360" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C360" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D360" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E360">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="F360" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="G360">
-        <v>151</v>
+        <v>419</v>
+      </c>
+      <c r="H360" t="s">
+        <v>89</v>
+      </c>
+      <c r="I360">
+        <v>5</v>
       </c>
       <c r="J360">
-        <v>703</v>
+        <v>740</v>
       </c>
       <c r="K360">
         <v>0</v>
@@ -27330,40 +27328,40 @@
         <v>0</v>
       </c>
       <c r="M360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N360" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="O360" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P360" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="Q360" t="s">
-        <v>70</v>
-      </c>
-      <c r="S360" t="s">
-        <v>123</v>
+        <v>33</v>
+      </c>
+      <c r="R360" t="s">
+        <v>53</v>
       </c>
       <c r="T360">
-        <v>936</v>
+        <v>366</v>
       </c>
       <c r="U360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W360">
         <v>0</v>
       </c>
       <c r="X360">
-        <v>19.5</v>
+        <v>-56</v>
       </c>
       <c r="Y360">
-        <v>48.666666999999997</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:25" x14ac:dyDescent="0.35">
@@ -27374,7 +27372,7 @@
         <v>855</v>
       </c>
       <c r="C361" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D361" t="s">
         <v>61</v>
@@ -27436,13 +27434,13 @@
     </row>
     <row r="362" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B362" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C362" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D362" t="s">
         <v>61</v>
@@ -27451,13 +27449,13 @@
         <v>150</v>
       </c>
       <c r="F362" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="G362">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="J362">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="K362">
         <v>0</v>
@@ -27484,7 +27482,7 @@
         <v>123</v>
       </c>
       <c r="T362">
-        <v>961</v>
+        <v>936</v>
       </c>
       <c r="U362">
         <v>1</v>
@@ -27496,21 +27494,21 @@
         <v>0</v>
       </c>
       <c r="X362">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="Y362">
-        <v>46.082999999999998</v>
+        <v>48.666666999999997</v>
       </c>
     </row>
     <row r="363" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B363" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C363" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D363" t="s">
         <v>61</v>
@@ -27519,13 +27517,13 @@
         <v>150</v>
       </c>
       <c r="F363" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G363">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="J363">
-        <v>752</v>
+        <v>705</v>
       </c>
       <c r="K363">
         <v>0</v>
@@ -27548,8 +27546,11 @@
       <c r="Q363" t="s">
         <v>70</v>
       </c>
+      <c r="S363" t="s">
+        <v>123</v>
+      </c>
       <c r="T363">
-        <v>144</v>
+        <v>961</v>
       </c>
       <c r="U363">
         <v>1</v>
@@ -27564,81 +27565,72 @@
         <v>15</v>
       </c>
       <c r="Y363">
-        <v>62</v>
+        <v>46.082999999999998</v>
       </c>
     </row>
     <row r="364" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B364" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C364" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D364" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E364">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="F364" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G364">
-        <v>202</v>
-      </c>
-      <c r="H364" t="s">
-        <v>209</v>
-      </c>
-      <c r="I364">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="J364">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="K364">
         <v>0</v>
       </c>
       <c r="L364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M364">
         <v>0</v>
       </c>
       <c r="N364" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="O364" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="P364" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="Q364" t="s">
-        <v>49</v>
-      </c>
-      <c r="R364" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="T364">
-        <v>734</v>
+        <v>144</v>
       </c>
       <c r="U364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W364">
         <v>0</v>
       </c>
       <c r="X364">
-        <v>31.5</v>
+        <v>15</v>
       </c>
       <c r="Y364">
-        <v>-26.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="365" spans="1:25" x14ac:dyDescent="0.35">
@@ -27649,7 +27641,7 @@
         <v>865</v>
       </c>
       <c r="C365" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D365" t="s">
         <v>48</v>
@@ -27723,7 +27715,7 @@
         <v>865</v>
       </c>
       <c r="C366" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D366" t="s">
         <v>48</v>
@@ -27797,7 +27789,7 @@
         <v>865</v>
       </c>
       <c r="C367" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D367" t="s">
         <v>48</v>
@@ -27865,52 +27857,61 @@
     </row>
     <row r="368" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B368" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C368" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D368" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E368">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F368" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G368">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="H368" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="I368">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J368">
-        <v>534</v>
+        <v>748</v>
       </c>
       <c r="K368">
         <v>0</v>
       </c>
       <c r="L368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N368" t="s">
         <v>31</v>
       </c>
+      <c r="O368" t="s">
+        <v>51</v>
+      </c>
       <c r="P368" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="Q368" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="R368" t="s">
+        <v>53</v>
+      </c>
+      <c r="T368">
+        <v>734</v>
       </c>
       <c r="U368">
         <v>0</v>
@@ -27922,10 +27923,10 @@
         <v>0</v>
       </c>
       <c r="X368">
-        <v>-63.066670000000002</v>
+        <v>31.5</v>
       </c>
       <c r="Y368">
-        <v>18.04167</v>
+        <v>-26.5</v>
       </c>
     </row>
     <row r="369" spans="1:25" x14ac:dyDescent="0.35">
@@ -27936,7 +27937,7 @@
         <v>871</v>
       </c>
       <c r="C369" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D369" t="s">
         <v>28</v>
@@ -28001,7 +28002,7 @@
         <v>871</v>
       </c>
       <c r="C370" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D370" t="s">
         <v>28</v>
@@ -28060,34 +28061,34 @@
     </row>
     <row r="371" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B371" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C371" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D371" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E371">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F371" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G371">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="H371" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="I371">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J371">
-        <v>690</v>
+        <v>534</v>
       </c>
       <c r="K371">
         <v>0</v>
@@ -28101,20 +28102,11 @@
       <c r="N371" t="s">
         <v>31</v>
       </c>
-      <c r="O371" t="s">
-        <v>68</v>
-      </c>
       <c r="P371" t="s">
         <v>32</v>
       </c>
       <c r="Q371" t="s">
-        <v>49</v>
-      </c>
-      <c r="R371" t="s">
-        <v>53</v>
-      </c>
-      <c r="T371">
-        <v>718</v>
+        <v>33</v>
       </c>
       <c r="U371">
         <v>0</v>
@@ -28126,36 +28118,42 @@
         <v>0</v>
       </c>
       <c r="X371">
-        <v>55.473999999999997</v>
+        <v>-63.066670000000002</v>
       </c>
       <c r="Y371">
-        <v>-4.6470000000000002</v>
+        <v>18.04167</v>
       </c>
     </row>
     <row r="372" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B372" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C372" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D372" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E372">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F372" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="G372">
-        <v>145</v>
+        <v>202</v>
+      </c>
+      <c r="H372" t="s">
+        <v>107</v>
+      </c>
+      <c r="I372">
+        <v>14</v>
       </c>
       <c r="J372">
-        <v>760</v>
+        <v>690</v>
       </c>
       <c r="K372">
         <v>0</v>
@@ -28164,25 +28162,25 @@
         <v>0</v>
       </c>
       <c r="M372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N372" t="s">
         <v>31</v>
       </c>
       <c r="O372" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="P372" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q372" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="R372" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="T372">
-        <v>463</v>
+        <v>718</v>
       </c>
       <c r="U372">
         <v>0</v>
@@ -28191,13 +28189,13 @@
         <v>0</v>
       </c>
       <c r="W372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X372">
-        <v>38</v>
+        <v>55.473999999999997</v>
       </c>
       <c r="Y372">
-        <v>35</v>
+        <v>-4.6470000000000002</v>
       </c>
     </row>
     <row r="373" spans="1:25" x14ac:dyDescent="0.35">
@@ -28208,7 +28206,7 @@
         <v>879</v>
       </c>
       <c r="C373" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D373" t="s">
         <v>37</v>
@@ -28270,34 +28268,28 @@
     </row>
     <row r="374" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B374" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C374" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D374" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E374">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="F374" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="G374">
-        <v>419</v>
-      </c>
-      <c r="H374" t="s">
-        <v>30</v>
-      </c>
-      <c r="I374">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="J374">
-        <v>796</v>
+        <v>760</v>
       </c>
       <c r="K374">
         <v>0</v>
@@ -28311,11 +28303,20 @@
       <c r="N374" t="s">
         <v>31</v>
       </c>
+      <c r="O374" t="s">
+        <v>51</v>
+      </c>
       <c r="P374" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q374" t="s">
-        <v>33</v>
+        <v>83</v>
+      </c>
+      <c r="R374" t="s">
+        <v>42</v>
+      </c>
+      <c r="T374">
+        <v>463</v>
       </c>
       <c r="U374">
         <v>0</v>
@@ -28324,13 +28325,13 @@
         <v>0</v>
       </c>
       <c r="W374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X374">
-        <v>-71.95</v>
+        <v>38</v>
       </c>
       <c r="Y374">
-        <v>21.902000000000001</v>
+        <v>35</v>
       </c>
     </row>
     <row r="375" spans="1:25" x14ac:dyDescent="0.35">
@@ -28341,7 +28342,7 @@
         <v>883</v>
       </c>
       <c r="C375" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D375" t="s">
         <v>28</v>
@@ -28406,7 +28407,7 @@
         <v>883</v>
       </c>
       <c r="C376" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D376" t="s">
         <v>28</v>
@@ -28465,40 +28466,40 @@
     </row>
     <row r="377" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B377" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C377" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D377" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E377">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F377" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G377">
-        <v>202</v>
+        <v>419</v>
       </c>
       <c r="H377" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I377">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J377">
-        <v>148</v>
+        <v>796</v>
       </c>
       <c r="K377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M377">
         <v>0</v>
@@ -28506,23 +28507,11 @@
       <c r="N377" t="s">
         <v>31</v>
       </c>
-      <c r="O377" t="s">
-        <v>39</v>
-      </c>
       <c r="P377" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q377" t="s">
-        <v>49</v>
-      </c>
-      <c r="R377" t="s">
-        <v>42</v>
-      </c>
-      <c r="S377" t="s">
-        <v>43</v>
-      </c>
-      <c r="T377">
-        <v>628</v>
+        <v>33</v>
       </c>
       <c r="U377">
         <v>0</v>
@@ -28534,21 +28523,21 @@
         <v>0</v>
       </c>
       <c r="X377">
-        <v>19</v>
+        <v>-71.95</v>
       </c>
       <c r="Y377">
-        <v>15</v>
+        <v>21.902000000000001</v>
       </c>
     </row>
     <row r="378" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B378" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C378" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D378" t="s">
         <v>48</v>
@@ -28563,19 +28552,19 @@
         <v>202</v>
       </c>
       <c r="H378" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="I378">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J378">
-        <v>768</v>
+        <v>148</v>
       </c>
       <c r="K378">
         <v>1</v>
       </c>
       <c r="L378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M378">
         <v>0</v>
@@ -28599,7 +28588,7 @@
         <v>43</v>
       </c>
       <c r="T378">
-        <v>742</v>
+        <v>628</v>
       </c>
       <c r="U378">
         <v>0</v>
@@ -28611,39 +28600,45 @@
         <v>0</v>
       </c>
       <c r="X378">
-        <v>1.1667000000000001</v>
+        <v>19</v>
       </c>
       <c r="Y378">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="379" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B379" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C379" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D379" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E379">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F379" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="G379">
-        <v>35</v>
+        <v>202</v>
+      </c>
+      <c r="H379" t="s">
+        <v>137</v>
+      </c>
+      <c r="I379">
+        <v>11</v>
       </c>
       <c r="J379">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="K379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L379">
         <v>0</v>
@@ -28655,19 +28650,22 @@
         <v>31</v>
       </c>
       <c r="O379" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="P379" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Q379" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="R379" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="S379" t="s">
+        <v>43</v>
       </c>
       <c r="T379">
-        <v>578</v>
+        <v>742</v>
       </c>
       <c r="U379">
         <v>0</v>
@@ -28679,21 +28677,21 @@
         <v>0</v>
       </c>
       <c r="X379">
-        <v>101</v>
+        <v>1.1667000000000001</v>
       </c>
       <c r="Y379">
-        <v>15.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="380" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B380" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C380" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D380" t="s">
         <v>37</v>
@@ -28702,19 +28700,19 @@
         <v>142</v>
       </c>
       <c r="F380" t="s">
-        <v>502</v>
+        <v>198</v>
       </c>
       <c r="G380">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="J380">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="K380">
         <v>0</v>
       </c>
       <c r="L380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M380">
         <v>0</v>
@@ -28723,19 +28721,19 @@
         <v>31</v>
       </c>
       <c r="O380" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="P380" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="Q380" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="R380" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="T380">
-        <v>923</v>
+        <v>578</v>
       </c>
       <c r="U380">
         <v>0</v>
@@ -28747,42 +28745,42 @@
         <v>0</v>
       </c>
       <c r="X380">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="Y380">
-        <v>39</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="381" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B381" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C381" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D381" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="E381">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F381" t="s">
-        <v>98</v>
+        <v>502</v>
       </c>
       <c r="G381">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="J381">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="K381">
         <v>0</v>
       </c>
       <c r="L381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M381">
         <v>0</v>
@@ -28790,6 +28788,21 @@
       <c r="N381" t="s">
         <v>31</v>
       </c>
+      <c r="O381" t="s">
+        <v>51</v>
+      </c>
+      <c r="P381" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q381" t="s">
+        <v>70</v>
+      </c>
+      <c r="R381" t="s">
+        <v>42</v>
+      </c>
+      <c r="T381">
+        <v>923</v>
+      </c>
       <c r="U381">
         <v>0</v>
       </c>
@@ -28800,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="X381">
-        <v>-171.75</v>
+        <v>71</v>
       </c>
       <c r="Y381">
-        <v>-9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="382" spans="1:25" x14ac:dyDescent="0.35">
@@ -28814,7 +28827,7 @@
         <v>900</v>
       </c>
       <c r="C382" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D382" t="s">
         <v>97</v>
@@ -28861,34 +28874,34 @@
     </row>
     <row r="383" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B383" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C383" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D383" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E383">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="F383" t="s">
-        <v>502</v>
+        <v>98</v>
       </c>
       <c r="G383">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="J383">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="K383">
         <v>0</v>
       </c>
       <c r="L383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M383">
         <v>0</v>
@@ -28896,21 +28909,6 @@
       <c r="N383" t="s">
         <v>31</v>
       </c>
-      <c r="O383" t="s">
-        <v>68</v>
-      </c>
-      <c r="P383" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q383" t="s">
-        <v>70</v>
-      </c>
-      <c r="R383" t="s">
-        <v>53</v>
-      </c>
-      <c r="T383">
-        <v>925</v>
-      </c>
       <c r="U383">
         <v>0</v>
       </c>
@@ -28921,21 +28919,21 @@
         <v>0</v>
       </c>
       <c r="X383">
-        <v>59.666666999999997</v>
+        <v>-171.75</v>
       </c>
       <c r="Y383">
-        <v>39.75</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="384" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B384" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C384" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D384" t="s">
         <v>37</v>
@@ -28944,40 +28942,40 @@
         <v>142</v>
       </c>
       <c r="F384" t="s">
-        <v>198</v>
+        <v>502</v>
       </c>
       <c r="G384">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="J384">
-        <v>626</v>
+        <v>795</v>
       </c>
       <c r="K384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N384" t="s">
         <v>31</v>
       </c>
       <c r="O384" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="P384" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="Q384" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="R384" t="s">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="T384">
-        <v>537</v>
+        <v>925</v>
       </c>
       <c r="U384">
         <v>0</v>
@@ -28989,10 +28987,10 @@
         <v>0</v>
       </c>
       <c r="X384">
-        <v>126</v>
+        <v>59.666666999999997</v>
       </c>
       <c r="Y384">
-        <v>-8.5832999999999995</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.35">
@@ -29003,7 +29001,7 @@
         <v>907</v>
       </c>
       <c r="C385" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D385" t="s">
         <v>37</v>
@@ -29071,7 +29069,7 @@
         <v>907</v>
       </c>
       <c r="C386" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D386" t="s">
         <v>37</v>
@@ -29139,7 +29137,7 @@
         <v>907</v>
       </c>
       <c r="C387" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D387" t="s">
         <v>37</v>
@@ -29201,31 +29199,31 @@
     </row>
     <row r="388" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="B388" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="C388" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D388" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="E388">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F388" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="G388">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="J388">
-        <v>776</v>
+        <v>626</v>
       </c>
       <c r="K388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L388">
         <v>0</v>
@@ -29237,19 +29235,19 @@
         <v>31</v>
       </c>
       <c r="O388" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="P388" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="Q388" t="s">
         <v>99</v>
       </c>
       <c r="R388" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="T388">
-        <v>866</v>
+        <v>537</v>
       </c>
       <c r="U388">
         <v>0</v>
@@ -29261,42 +29259,36 @@
         <v>0</v>
       </c>
       <c r="X388">
-        <v>-175</v>
+        <v>126</v>
       </c>
       <c r="Y388">
-        <v>-20</v>
+        <v>-8.5832999999999995</v>
       </c>
     </row>
     <row r="389" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B389" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C389" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D389" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E389">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F389" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="G389">
-        <v>419</v>
-      </c>
-      <c r="H389" t="s">
-        <v>30</v>
-      </c>
-      <c r="I389">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J389">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="K389">
         <v>0</v>
@@ -29311,19 +29303,19 @@
         <v>31</v>
       </c>
       <c r="O389" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P389" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="Q389" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="R389" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="T389">
-        <v>369</v>
+        <v>866</v>
       </c>
       <c r="U389">
         <v>0</v>
@@ -29335,10 +29327,10 @@
         <v>0</v>
       </c>
       <c r="X389">
-        <v>-61</v>
+        <v>-175</v>
       </c>
       <c r="Y389">
-        <v>11</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="390" spans="1:25" x14ac:dyDescent="0.35">
@@ -29349,7 +29341,7 @@
         <v>916</v>
       </c>
       <c r="C390" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D390" t="s">
         <v>28</v>
@@ -29423,7 +29415,7 @@
         <v>916</v>
       </c>
       <c r="C391" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D391" t="s">
         <v>28</v>
@@ -29497,7 +29489,7 @@
         <v>916</v>
       </c>
       <c r="C392" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D392" t="s">
         <v>28</v>
@@ -29565,28 +29557,34 @@
     </row>
     <row r="393" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="B393" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C393" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D393" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E393">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F393" t="s">
-        <v>314</v>
+        <v>29</v>
       </c>
       <c r="G393">
-        <v>15</v>
+        <v>419</v>
+      </c>
+      <c r="H393" t="s">
+        <v>30</v>
+      </c>
+      <c r="I393">
+        <v>29</v>
       </c>
       <c r="J393">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="K393">
         <v>0</v>
@@ -29595,25 +29593,25 @@
         <v>0</v>
       </c>
       <c r="M393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N393" t="s">
         <v>31</v>
       </c>
       <c r="O393" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P393" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="Q393" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="R393" t="s">
         <v>53</v>
       </c>
       <c r="T393">
-        <v>744</v>
+        <v>369</v>
       </c>
       <c r="U393">
         <v>0</v>
@@ -29622,39 +29620,39 @@
         <v>0</v>
       </c>
       <c r="W393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X393">
-        <v>9</v>
+        <v>-61</v>
       </c>
       <c r="Y393">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="394" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B394" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C394" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D394" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E394">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="F394" t="s">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="G394">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="J394">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="K394">
         <v>0</v>
@@ -29668,88 +29666,88 @@
       <c r="N394" t="s">
         <v>31</v>
       </c>
+      <c r="O394" t="s">
+        <v>68</v>
+      </c>
       <c r="P394" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="Q394" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="R394" t="s">
         <v>53</v>
       </c>
       <c r="T394">
-        <v>186</v>
+        <v>744</v>
       </c>
       <c r="U394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V394">
         <v>0</v>
       </c>
       <c r="W394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X394">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="Y394">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="395" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B395" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C395" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D395" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="E395">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F395" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G395">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="J395">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="K395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L395">
         <v>0</v>
       </c>
       <c r="M395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N395" t="s">
         <v>31</v>
       </c>
-      <c r="O395" t="s">
-        <v>51</v>
-      </c>
       <c r="P395" t="s">
         <v>69</v>
       </c>
       <c r="Q395" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="R395" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="T395">
-        <v>869</v>
+        <v>186</v>
       </c>
       <c r="U395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V395">
         <v>0</v>
@@ -29758,30 +29756,63 @@
         <v>0</v>
       </c>
       <c r="X395">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="Y395">
-        <v>-8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="396" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="B396" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C396" t="s">
-        <v>932</v>
+        <v>929</v>
+      </c>
+      <c r="D396" t="s">
+        <v>97</v>
+      </c>
+      <c r="E396">
+        <v>9</v>
+      </c>
+      <c r="F396" t="s">
+        <v>98</v>
+      </c>
+      <c r="G396">
+        <v>61</v>
+      </c>
+      <c r="J396">
+        <v>798</v>
+      </c>
+      <c r="K396">
+        <v>1</v>
+      </c>
+      <c r="L396">
+        <v>0</v>
+      </c>
+      <c r="M396">
+        <v>1</v>
+      </c>
+      <c r="N396" t="s">
+        <v>31</v>
+      </c>
+      <c r="O396" t="s">
+        <v>51</v>
       </c>
       <c r="P396" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="Q396" t="s">
         <v>99</v>
       </c>
+      <c r="R396" t="s">
+        <v>42</v>
+      </c>
       <c r="T396">
-        <v>528</v>
+        <v>869</v>
       </c>
       <c r="U396">
         <v>0</v>
@@ -29793,10 +29824,10 @@
         <v>0</v>
       </c>
       <c r="X396">
-        <v>120.68389999999999</v>
+        <v>178</v>
       </c>
       <c r="Y396">
-        <v>24.146899999999999</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="397" spans="1:25" x14ac:dyDescent="0.35">
@@ -29807,7 +29838,7 @@
         <v>931</v>
       </c>
       <c r="C397" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="P397" t="s">
         <v>32</v>
@@ -29842,7 +29873,7 @@
         <v>931</v>
       </c>
       <c r="C398" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="P398" t="s">
         <v>32</v>
@@ -29877,7 +29908,7 @@
         <v>931</v>
       </c>
       <c r="C399" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="P399" t="s">
         <v>32</v>
@@ -29906,64 +29937,22 @@
     </row>
     <row r="400" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="B400" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="C400" t="s">
-        <v>938</v>
-      </c>
-      <c r="D400" t="s">
-        <v>48</v>
-      </c>
-      <c r="E400">
-        <v>2</v>
-      </c>
-      <c r="F400" t="s">
-        <v>49</v>
-      </c>
-      <c r="G400">
-        <v>202</v>
-      </c>
-      <c r="H400" t="s">
-        <v>107</v>
-      </c>
-      <c r="I400">
-        <v>14</v>
-      </c>
-      <c r="J400">
-        <v>834</v>
-      </c>
-      <c r="K400">
-        <v>1</v>
-      </c>
-      <c r="L400">
-        <v>0</v>
-      </c>
-      <c r="M400">
-        <v>0</v>
-      </c>
-      <c r="N400" t="s">
-        <v>31</v>
-      </c>
-      <c r="O400" t="s">
-        <v>39</v>
+        <v>935</v>
       </c>
       <c r="P400" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="Q400" t="s">
-        <v>49</v>
-      </c>
-      <c r="R400" t="s">
-        <v>42</v>
-      </c>
-      <c r="S400" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="T400">
-        <v>738</v>
+        <v>528</v>
       </c>
       <c r="U400">
         <v>0</v>
@@ -29975,10 +29964,10 @@
         <v>0</v>
       </c>
       <c r="X400">
-        <v>35</v>
+        <v>120.68389999999999</v>
       </c>
       <c r="Y400">
-        <v>-6</v>
+        <v>24.146899999999999</v>
       </c>
     </row>
     <row r="401" spans="1:25" x14ac:dyDescent="0.35">
@@ -29989,7 +29978,7 @@
         <v>937</v>
       </c>
       <c r="C401" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D401" t="s">
         <v>48</v>
@@ -30066,7 +30055,7 @@
         <v>937</v>
       </c>
       <c r="C402" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D402" t="s">
         <v>48</v>
@@ -30143,7 +30132,7 @@
         <v>937</v>
       </c>
       <c r="C403" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D403" t="s">
         <v>48</v>
@@ -30214,13 +30203,13 @@
     </row>
     <row r="404" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B404" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C404" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D404" t="s">
         <v>48</v>
@@ -30241,13 +30230,13 @@
         <v>14</v>
       </c>
       <c r="J404">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="K404">
         <v>1</v>
       </c>
       <c r="L404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M404">
         <v>0</v>
@@ -30259,7 +30248,7 @@
         <v>39</v>
       </c>
       <c r="P404" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Q404" t="s">
         <v>49</v>
@@ -30271,7 +30260,7 @@
         <v>43</v>
       </c>
       <c r="T404">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="U404">
         <v>0</v>
@@ -30283,63 +30272,72 @@
         <v>0</v>
       </c>
       <c r="X404">
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="Y404">
-        <v>1.25</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="405" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B405" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C405" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D405" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E405">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F405" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="G405">
-        <v>151</v>
+        <v>202</v>
+      </c>
+      <c r="H405" t="s">
+        <v>107</v>
+      </c>
+      <c r="I405">
+        <v>14</v>
       </c>
       <c r="J405">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="K405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M405">
         <v>0</v>
       </c>
       <c r="N405" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="O405" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P405" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q405" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="R405" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="S405" t="s">
+        <v>43</v>
       </c>
       <c r="T405">
-        <v>926</v>
+        <v>746</v>
       </c>
       <c r="U405">
         <v>0</v>
@@ -30351,36 +30349,36 @@
         <v>0</v>
       </c>
       <c r="X405">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="Y405">
-        <v>49</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="406" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B406" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C406" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D406" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E406">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="F406" t="s">
-        <v>361</v>
+        <v>154</v>
       </c>
       <c r="G406">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="J406">
-        <v>581</v>
+        <v>804</v>
       </c>
       <c r="K406">
         <v>0</v>
@@ -30392,7 +30390,22 @@
         <v>0</v>
       </c>
       <c r="N406" t="s">
-        <v>31</v>
+        <v>63</v>
+      </c>
+      <c r="O406" t="s">
+        <v>68</v>
+      </c>
+      <c r="P406" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>70</v>
+      </c>
+      <c r="R406" t="s">
+        <v>53</v>
+      </c>
+      <c r="T406">
+        <v>926</v>
       </c>
       <c r="U406">
         <v>0</v>
@@ -30404,10 +30417,10 @@
         <v>0</v>
       </c>
       <c r="X406">
-        <v>-169.51666666700001</v>
+        <v>32</v>
       </c>
       <c r="Y406">
-        <v>16.75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="407" spans="1:25" x14ac:dyDescent="0.35">
@@ -30418,7 +30431,7 @@
         <v>949</v>
       </c>
       <c r="C407" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D407" t="s">
         <v>97</v>
@@ -30471,7 +30484,7 @@
         <v>949</v>
       </c>
       <c r="C408" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D408" t="s">
         <v>97</v>
@@ -30524,7 +30537,7 @@
         <v>949</v>
       </c>
       <c r="C409" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D409" t="s">
         <v>97</v>
@@ -30571,34 +30584,28 @@
     </row>
     <row r="410" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B410" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C410" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D410" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E410">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F410" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="G410">
-        <v>419</v>
-      </c>
-      <c r="H410" t="s">
-        <v>89</v>
-      </c>
-      <c r="I410">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="J410">
-        <v>858</v>
+        <v>581</v>
       </c>
       <c r="K410">
         <v>0</v>
@@ -30612,21 +30619,6 @@
       <c r="N410" t="s">
         <v>31</v>
       </c>
-      <c r="O410" t="s">
-        <v>74</v>
-      </c>
-      <c r="P410" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q410" t="s">
-        <v>33</v>
-      </c>
-      <c r="R410" t="s">
-        <v>53</v>
-      </c>
-      <c r="T410">
-        <v>298</v>
-      </c>
       <c r="U410">
         <v>0</v>
       </c>
@@ -30637,21 +30629,21 @@
         <v>0</v>
       </c>
       <c r="X410">
-        <v>-56</v>
+        <v>-169.51666666700001</v>
       </c>
       <c r="Y410">
-        <v>-33</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="411" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B411" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C411" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D411" t="s">
         <v>28</v>
@@ -30660,13 +30652,19 @@
         <v>19</v>
       </c>
       <c r="F411" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="G411">
-        <v>21</v>
+        <v>419</v>
+      </c>
+      <c r="H411" t="s">
+        <v>89</v>
+      </c>
+      <c r="I411">
+        <v>5</v>
       </c>
       <c r="J411">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="K411">
         <v>0</v>
@@ -30678,7 +30676,7 @@
         <v>0</v>
       </c>
       <c r="N411" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="O411" t="s">
         <v>74</v>
@@ -30687,13 +30685,16 @@
         <v>32</v>
       </c>
       <c r="Q411" t="s">
-        <v>184</v>
+        <v>33</v>
+      </c>
+      <c r="R411" t="s">
+        <v>53</v>
       </c>
       <c r="T411">
-        <v>111</v>
+        <v>298</v>
       </c>
       <c r="U411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V411">
         <v>0</v>
@@ -30702,10 +30703,10 @@
         <v>0</v>
       </c>
       <c r="X411">
-        <v>-97</v>
+        <v>-56</v>
       </c>
       <c r="Y411">
-        <v>38</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="412" spans="1:25" x14ac:dyDescent="0.35">
@@ -30716,7 +30717,7 @@
         <v>958</v>
       </c>
       <c r="C412" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D412" t="s">
         <v>28</v>
@@ -30781,7 +30782,7 @@
         <v>958</v>
       </c>
       <c r="C413" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="D413" t="s">
         <v>28</v>
@@ -30840,58 +30841,55 @@
     </row>
     <row r="414" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B414" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C414" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="D414" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E414">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="F414" t="s">
-        <v>502</v>
+        <v>183</v>
       </c>
       <c r="G414">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="J414">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="K414">
         <v>0</v>
       </c>
       <c r="L414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M414">
         <v>0</v>
       </c>
       <c r="N414" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="O414" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P414" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="Q414" t="s">
-        <v>70</v>
-      </c>
-      <c r="R414" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="T414">
-        <v>927</v>
+        <v>111</v>
       </c>
       <c r="U414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V414">
         <v>0</v>
@@ -30900,48 +30898,63 @@
         <v>0</v>
       </c>
       <c r="X414">
-        <v>63.833333000000003</v>
+        <v>-97</v>
       </c>
       <c r="Y414">
-        <v>41.666666999999997</v>
+        <v>38</v>
       </c>
     </row>
     <row r="415" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B415" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C415" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D415" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E415">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F415" t="s">
-        <v>67</v>
+        <v>502</v>
       </c>
       <c r="G415">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="J415">
-        <v>336</v>
+        <v>860</v>
       </c>
       <c r="K415">
         <v>0</v>
       </c>
       <c r="L415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M415">
         <v>0</v>
       </c>
       <c r="N415" t="s">
-        <v>63</v>
+        <v>31</v>
+      </c>
+      <c r="O415" t="s">
+        <v>68</v>
+      </c>
+      <c r="P415" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q415" t="s">
+        <v>70</v>
+      </c>
+      <c r="R415" t="s">
+        <v>241</v>
+      </c>
+      <c r="T415">
+        <v>927</v>
       </c>
       <c r="U415">
         <v>0</v>
@@ -30953,10 +30966,10 @@
         <v>0</v>
       </c>
       <c r="X415">
-        <v>12.45</v>
+        <v>63.833333000000003</v>
       </c>
       <c r="Y415">
-        <v>41.9</v>
+        <v>41.666666999999997</v>
       </c>
     </row>
     <row r="416" spans="1:25" x14ac:dyDescent="0.35">
@@ -30967,7 +30980,7 @@
         <v>965</v>
       </c>
       <c r="C416" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D416" t="s">
         <v>61</v>
@@ -31020,7 +31033,7 @@
         <v>965</v>
       </c>
       <c r="C417" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D417" t="s">
         <v>61</v>
@@ -31067,34 +31080,28 @@
     </row>
     <row r="418" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="B418" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C418" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D418" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E418">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="F418" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G418">
-        <v>419</v>
-      </c>
-      <c r="H418" t="s">
-        <v>30</v>
-      </c>
-      <c r="I418">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J418">
-        <v>670</v>
+        <v>336</v>
       </c>
       <c r="K418">
         <v>0</v>
@@ -31103,25 +31110,10 @@
         <v>0</v>
       </c>
       <c r="M418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N418" t="s">
-        <v>31</v>
-      </c>
-      <c r="O418" t="s">
-        <v>68</v>
-      </c>
-      <c r="P418" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q418" t="s">
-        <v>33</v>
-      </c>
-      <c r="R418" t="s">
-        <v>241</v>
-      </c>
-      <c r="T418">
-        <v>364</v>
+        <v>63</v>
       </c>
       <c r="U418">
         <v>0</v>
@@ -31133,10 +31125,10 @@
         <v>0</v>
       </c>
       <c r="X418">
-        <v>-61.194000000000003</v>
+        <v>12.45</v>
       </c>
       <c r="Y418">
-        <v>13.247999999999999</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="419" spans="1:25" x14ac:dyDescent="0.35">
@@ -31147,7 +31139,7 @@
         <v>970</v>
       </c>
       <c r="C419" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D419" t="s">
         <v>28</v>
@@ -31221,7 +31213,7 @@
         <v>970</v>
       </c>
       <c r="C420" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D420" t="s">
         <v>28</v>
@@ -31295,7 +31287,7 @@
         <v>970</v>
       </c>
       <c r="C421" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D421" t="s">
         <v>28</v>
@@ -31369,7 +31361,7 @@
         <v>970</v>
       </c>
       <c r="C422" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D422" t="s">
         <v>28</v>
@@ -31443,7 +31435,7 @@
         <v>970</v>
       </c>
       <c r="C423" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D423" t="s">
         <v>28</v>
@@ -31511,13 +31503,13 @@
     </row>
     <row r="424" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="B424" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="C424" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D424" t="s">
         <v>28</v>
@@ -31532,13 +31524,13 @@
         <v>419</v>
       </c>
       <c r="H424" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="I424">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J424">
-        <v>862</v>
+        <v>670</v>
       </c>
       <c r="K424">
         <v>0</v>
@@ -31547,13 +31539,13 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N424" t="s">
         <v>31</v>
       </c>
       <c r="O424" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="P424" t="s">
         <v>69</v>
@@ -31562,10 +31554,10 @@
         <v>33</v>
       </c>
       <c r="R424" t="s">
-        <v>53</v>
+        <v>241</v>
       </c>
       <c r="T424">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="U424">
         <v>0</v>
@@ -31577,10 +31569,10 @@
         <v>0</v>
       </c>
       <c r="X424">
-        <v>-66</v>
+        <v>-61.194000000000003</v>
       </c>
       <c r="Y424">
-        <v>8</v>
+        <v>13.247999999999999</v>
       </c>
     </row>
     <row r="425" spans="1:25" x14ac:dyDescent="0.35">
@@ -31591,7 +31583,7 @@
         <v>978</v>
       </c>
       <c r="C425" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D425" t="s">
         <v>28</v>
@@ -31665,7 +31657,7 @@
         <v>978</v>
       </c>
       <c r="C426" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D426" t="s">
         <v>28</v>
@@ -31739,7 +31731,7 @@
         <v>978</v>
       </c>
       <c r="C427" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D427" t="s">
         <v>28</v>
@@ -31813,7 +31805,7 @@
         <v>978</v>
       </c>
       <c r="C428" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D428" t="s">
         <v>28</v>
@@ -31881,13 +31873,13 @@
     </row>
     <row r="429" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="B429" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C429" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D429" t="s">
         <v>28</v>
@@ -31902,13 +31894,13 @@
         <v>419</v>
       </c>
       <c r="H429" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="I429">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J429">
-        <v>92</v>
+        <v>862</v>
       </c>
       <c r="K429">
         <v>0</v>
@@ -31917,17 +31909,26 @@
         <v>0</v>
       </c>
       <c r="M429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N429" t="s">
         <v>31</v>
       </c>
+      <c r="O429" t="s">
+        <v>51</v>
+      </c>
       <c r="P429" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="Q429" t="s">
         <v>33</v>
       </c>
+      <c r="R429" t="s">
+        <v>53</v>
+      </c>
+      <c r="T429">
+        <v>299</v>
+      </c>
       <c r="U429">
         <v>0</v>
       </c>
@@ -31938,10 +31939,10 @@
         <v>0</v>
       </c>
       <c r="X429">
-        <v>-64.39</v>
+        <v>-66</v>
       </c>
       <c r="Y429">
-        <v>18.483000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="430" spans="1:25" x14ac:dyDescent="0.35">
@@ -31952,7 +31953,7 @@
         <v>985</v>
       </c>
       <c r="C430" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D430" t="s">
         <v>28</v>
@@ -32011,13 +32012,13 @@
     </row>
     <row r="431" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B431" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C431" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="D431" t="s">
         <v>28</v>
@@ -32038,7 +32039,7 @@
         <v>29</v>
       </c>
       <c r="J431">
-        <v>850</v>
+        <v>92</v>
       </c>
       <c r="K431">
         <v>0</v>
@@ -32068,10 +32069,10 @@
         <v>0</v>
       </c>
       <c r="X431">
-        <v>-64.784999999999997</v>
+        <v>-64.39</v>
       </c>
       <c r="Y431">
-        <v>17.741</v>
+        <v>18.483000000000001</v>
       </c>
     </row>
     <row r="432" spans="1:25" x14ac:dyDescent="0.35">
@@ -32082,7 +32083,7 @@
         <v>989</v>
       </c>
       <c r="C432" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D432" t="s">
         <v>28</v>
@@ -32147,7 +32148,7 @@
         <v>989</v>
       </c>
       <c r="C433" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D433" t="s">
         <v>28</v>
@@ -32206,28 +32207,34 @@
     </row>
     <row r="434" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B434" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C434" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D434" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E434">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="F434" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="G434">
-        <v>35</v>
+        <v>419</v>
+      </c>
+      <c r="H434" t="s">
+        <v>30</v>
+      </c>
+      <c r="I434">
+        <v>29</v>
       </c>
       <c r="J434">
-        <v>704</v>
+        <v>850</v>
       </c>
       <c r="K434">
         <v>0</v>
@@ -32236,25 +32243,16 @@
         <v>0</v>
       </c>
       <c r="M434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N434" t="s">
         <v>31</v>
       </c>
-      <c r="O434" t="s">
-        <v>68</v>
-      </c>
       <c r="P434" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="Q434" t="s">
-        <v>99</v>
-      </c>
-      <c r="R434" t="s">
-        <v>53</v>
-      </c>
-      <c r="T434">
-        <v>582</v>
+        <v>33</v>
       </c>
       <c r="U434">
         <v>0</v>
@@ -32266,10 +32264,10 @@
         <v>0</v>
       </c>
       <c r="X434">
-        <v>107.833333</v>
+        <v>-64.784999999999997</v>
       </c>
       <c r="Y434">
-        <v>16.166667</v>
+        <v>17.741</v>
       </c>
     </row>
     <row r="435" spans="1:25" x14ac:dyDescent="0.35">
@@ -32280,7 +32278,7 @@
         <v>994</v>
       </c>
       <c r="C435" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D435" t="s">
         <v>37</v>
@@ -32342,28 +32340,28 @@
     </row>
     <row r="436" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B436" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C436" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D436" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="E436">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F436" t="s">
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="G436">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J436">
-        <v>548</v>
+        <v>704</v>
       </c>
       <c r="K436">
         <v>0</v>
@@ -32372,13 +32370,13 @@
         <v>0</v>
       </c>
       <c r="M436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N436" t="s">
         <v>31</v>
       </c>
       <c r="O436" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="P436" t="s">
         <v>52</v>
@@ -32387,10 +32385,10 @@
         <v>99</v>
       </c>
       <c r="R436" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="T436">
-        <v>846</v>
+        <v>582</v>
       </c>
       <c r="U436">
         <v>0</v>
@@ -32402,21 +32400,21 @@
         <v>0</v>
       </c>
       <c r="X436">
-        <v>167</v>
+        <v>107.833333</v>
       </c>
       <c r="Y436">
-        <v>-16</v>
+        <v>16.166667</v>
       </c>
     </row>
     <row r="437" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B437" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C437" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D437" t="s">
         <v>97</v>
@@ -32425,13 +32423,13 @@
         <v>9</v>
       </c>
       <c r="F437" t="s">
-        <v>98</v>
+        <v>345</v>
       </c>
       <c r="G437">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J437">
-        <v>876</v>
+        <v>548</v>
       </c>
       <c r="K437">
         <v>0</v>
@@ -32440,11 +32438,26 @@
         <v>0</v>
       </c>
       <c r="M437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N437" t="s">
         <v>31</v>
       </c>
+      <c r="O437" t="s">
+        <v>51</v>
+      </c>
+      <c r="P437" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q437" t="s">
+        <v>99</v>
+      </c>
+      <c r="R437" t="s">
+        <v>42</v>
+      </c>
+      <c r="T437">
+        <v>846</v>
+      </c>
       <c r="U437">
         <v>0</v>
       </c>
@@ -32455,10 +32468,10 @@
         <v>0</v>
       </c>
       <c r="X437">
-        <v>-176.2</v>
+        <v>167</v>
       </c>
       <c r="Y437">
-        <v>-13.3</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="438" spans="1:25" x14ac:dyDescent="0.35">
@@ -32469,7 +32482,7 @@
         <v>1001</v>
       </c>
       <c r="C438" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D438" t="s">
         <v>97</v>
@@ -32522,7 +32535,7 @@
         <v>1001</v>
       </c>
       <c r="C439" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D439" t="s">
         <v>97</v>
@@ -32569,13 +32582,13 @@
     </row>
     <row r="440" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B440" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C440" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D440" t="s">
         <v>97</v>
@@ -32590,7 +32603,7 @@
         <v>61</v>
       </c>
       <c r="J440">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K440">
         <v>0</v>
@@ -32599,26 +32612,11 @@
         <v>0</v>
       </c>
       <c r="M440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N440" t="s">
         <v>31</v>
       </c>
-      <c r="O440" t="s">
-        <v>68</v>
-      </c>
-      <c r="P440" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q440" t="s">
-        <v>99</v>
-      </c>
-      <c r="R440" t="s">
-        <v>42</v>
-      </c>
-      <c r="T440">
-        <v>862</v>
-      </c>
       <c r="U440">
         <v>0</v>
       </c>
@@ -32629,63 +32627,63 @@
         <v>0</v>
       </c>
       <c r="X440">
-        <v>-172.13333299999999</v>
+        <v>-176.2</v>
       </c>
       <c r="Y440">
-        <v>-13.8</v>
+        <v>-13.3</v>
       </c>
     </row>
     <row r="441" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B441" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C441" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D441" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E441">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="F441" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G441">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="J441">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="K441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L441">
         <v>0</v>
       </c>
       <c r="M441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N441" t="s">
         <v>31</v>
       </c>
       <c r="O441" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="P441" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Q441" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="R441" t="s">
         <v>42</v>
       </c>
       <c r="T441">
-        <v>474</v>
+        <v>862</v>
       </c>
       <c r="U441">
         <v>0</v>
@@ -32694,13 +32692,13 @@
         <v>0</v>
       </c>
       <c r="W441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X441">
-        <v>47.5</v>
+        <v>-172.13333299999999</v>
       </c>
       <c r="Y441">
-        <v>15.5</v>
+        <v>-13.8</v>
       </c>
     </row>
     <row r="442" spans="1:25" x14ac:dyDescent="0.35">
@@ -32711,7 +32709,7 @@
         <v>1009</v>
       </c>
       <c r="C442" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D442" t="s">
         <v>37</v>
@@ -32779,7 +32777,7 @@
         <v>1009</v>
       </c>
       <c r="C443" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D443" t="s">
         <v>37</v>
@@ -32841,37 +32839,31 @@
     </row>
     <row r="444" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B444" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C444" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D444" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E444">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F444" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G444">
-        <v>202</v>
-      </c>
-      <c r="H444" t="s">
-        <v>209</v>
-      </c>
-      <c r="I444">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="J444">
-        <v>710</v>
+        <v>887</v>
       </c>
       <c r="K444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L444">
         <v>0</v>
@@ -32883,19 +32875,19 @@
         <v>31</v>
       </c>
       <c r="O444" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P444" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Q444" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="R444" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="T444">
-        <v>199</v>
+        <v>474</v>
       </c>
       <c r="U444">
         <v>0</v>
@@ -32904,24 +32896,24 @@
         <v>0</v>
       </c>
       <c r="W444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X444">
-        <v>23.120999999999999</v>
+        <v>47.5</v>
       </c>
       <c r="Y444">
-        <v>-30.558</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="445" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B445" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C445" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D445" t="s">
         <v>48</v>
@@ -32936,19 +32928,19 @@
         <v>202</v>
       </c>
       <c r="H445" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="I445">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J445">
-        <v>894</v>
+        <v>710</v>
       </c>
       <c r="K445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M445">
         <v>0</v>
@@ -32957,22 +32949,19 @@
         <v>31</v>
       </c>
       <c r="O445" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="P445" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="Q445" t="s">
         <v>49</v>
       </c>
       <c r="R445" t="s">
-        <v>42</v>
-      </c>
-      <c r="S445" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="T445">
-        <v>754</v>
+        <v>199</v>
       </c>
       <c r="U445">
         <v>0</v>
@@ -32984,21 +32973,21 @@
         <v>0</v>
       </c>
       <c r="X445">
-        <v>28.5</v>
+        <v>23.120999999999999</v>
       </c>
       <c r="Y445">
-        <v>-14.33333</v>
+        <v>-30.558</v>
       </c>
     </row>
     <row r="446" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B446" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C446" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D446" t="s">
         <v>48</v>
@@ -33019,10 +33008,10 @@
         <v>14</v>
       </c>
       <c r="J446">
-        <v>716</v>
+        <v>894</v>
       </c>
       <c r="K446">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L446">
         <v>1</v>
@@ -33037,74 +33026,151 @@
         <v>51</v>
       </c>
       <c r="P446" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q446" t="s">
         <v>49</v>
       </c>
       <c r="R446" t="s">
+        <v>42</v>
+      </c>
+      <c r="S446" t="s">
+        <v>43</v>
+      </c>
+      <c r="T446">
+        <v>754</v>
+      </c>
+      <c r="U446">
+        <v>0</v>
+      </c>
+      <c r="V446">
+        <v>0</v>
+      </c>
+      <c r="W446">
+        <v>0</v>
+      </c>
+      <c r="X446">
+        <v>28.5</v>
+      </c>
+      <c r="Y446">
+        <v>-14.33333</v>
+      </c>
+    </row>
+    <row r="447" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D447" t="s">
+        <v>48</v>
+      </c>
+      <c r="E447">
+        <v>2</v>
+      </c>
+      <c r="F447" t="s">
+        <v>49</v>
+      </c>
+      <c r="G447">
+        <v>202</v>
+      </c>
+      <c r="H447" t="s">
+        <v>107</v>
+      </c>
+      <c r="I447">
+        <v>14</v>
+      </c>
+      <c r="J447">
+        <v>716</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+      <c r="L447">
+        <v>1</v>
+      </c>
+      <c r="M447">
+        <v>0</v>
+      </c>
+      <c r="N447" t="s">
+        <v>31</v>
+      </c>
+      <c r="O447" t="s">
+        <v>51</v>
+      </c>
+      <c r="P447" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q447" t="s">
+        <v>49</v>
+      </c>
+      <c r="R447" t="s">
         <v>241</v>
       </c>
-      <c r="T446">
+      <c r="T447">
         <v>698</v>
       </c>
-      <c r="U446">
-        <v>0</v>
-      </c>
-      <c r="V446">
-        <v>0</v>
-      </c>
-      <c r="W446">
-        <v>0</v>
-      </c>
-      <c r="X446">
+      <c r="U447">
+        <v>0</v>
+      </c>
+      <c r="V447">
+        <v>0</v>
+      </c>
+      <c r="W447">
+        <v>0</v>
+      </c>
+      <c r="X447">
         <v>30.73189</v>
       </c>
-      <c r="Y446">
+      <c r="Y447">
         <v>-20.129123</v>
       </c>
     </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C447" t="s">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C448" t="s">
         <v>1022</v>
       </c>
-      <c r="D447" t="s">
+      <c r="D448" t="s">
         <v>61</v>
       </c>
-      <c r="E447">
+      <c r="E448">
         <v>150</v>
       </c>
-      <c r="F447" t="s">
+      <c r="F448" t="s">
         <v>62</v>
       </c>
-      <c r="G447">
+      <c r="G448">
         <v>154</v>
       </c>
-      <c r="H447" t="s">
+      <c r="H448" t="s">
         <v>379</v>
       </c>
-      <c r="I447">
+      <c r="I448">
         <v>830</v>
       </c>
-      <c r="J447">
+      <c r="J448">
         <v>680</v>
       </c>
-      <c r="K447">
-        <v>0</v>
-      </c>
-      <c r="L447">
-        <v>0</v>
-      </c>
-      <c r="M447">
-        <v>0</v>
-      </c>
-      <c r="N447" t="s">
+      <c r="K448">
+        <v>0</v>
+      </c>
+      <c r="L448">
+        <v>0</v>
+      </c>
+      <c r="M448">
+        <v>0</v>
+      </c>
+      <c r="N448" t="s">
         <v>63</v>
       </c>
-      <c r="V447">
-        <v>0</v>
-      </c>
-      <c r="W447">
+      <c r="V448">
+        <v>0</v>
+      </c>
+      <c r="W448">
         <v>0</v>
       </c>
     </row>

--- a/Codes_Crosswalk.xlsx
+++ b/Codes_Crosswalk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc9855b04cee0f8c/Software/Codes-Crosswalk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{38F06027-B67A-4AF1-B3C5-C121FE7A1078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A01000D7-68B1-4400-8220-4E28032CBB48}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{38F06027-B67A-4AF1-B3C5-C121FE7A1078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7D1F285-F7EE-4B47-953B-9BE7EA6B099D}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4871" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4881" uniqueCount="1101">
   <si>
     <t>ISO3166.3</t>
   </si>
@@ -3322,6 +3322,9 @@
   </si>
   <si>
     <t>Federal Republic Of Germany</t>
+  </si>
+  <si>
+    <t>Democratic Republic Of Vietnam</t>
   </si>
 </sst>
 </file>
@@ -3382,6 +3385,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3663,7 +3670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y506"/>
+  <dimension ref="A1:Y507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36007,7 +36014,7 @@
         <v>994</v>
       </c>
       <c r="C488" t="s">
-        <v>996</v>
+        <v>1100</v>
       </c>
       <c r="D488" t="s">
         <v>37</v>
@@ -36075,7 +36082,7 @@
         <v>994</v>
       </c>
       <c r="C489" t="s">
-        <v>1098</v>
+        <v>996</v>
       </c>
       <c r="D489" t="s">
         <v>37</v>
@@ -36143,7 +36150,7 @@
         <v>994</v>
       </c>
       <c r="C490" t="s">
-        <v>1050</v>
+        <v>1098</v>
       </c>
       <c r="D490" t="s">
         <v>37</v>
@@ -36211,7 +36218,7 @@
         <v>994</v>
       </c>
       <c r="C491" t="s">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="D491" t="s">
         <v>37</v>
@@ -36273,28 +36280,28 @@
     </row>
     <row r="492" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B492" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C492" t="s">
-        <v>999</v>
+        <v>1069</v>
       </c>
       <c r="D492" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="E492">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="F492" t="s">
-        <v>345</v>
+        <v>198</v>
       </c>
       <c r="G492">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J492">
-        <v>548</v>
+        <v>704</v>
       </c>
       <c r="K492">
         <v>0</v>
@@ -36303,13 +36310,13 @@
         <v>0</v>
       </c>
       <c r="M492">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N492" t="s">
         <v>31</v>
       </c>
       <c r="O492" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="P492" t="s">
         <v>52</v>
@@ -36318,10 +36325,10 @@
         <v>99</v>
       </c>
       <c r="R492" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="T492">
-        <v>846</v>
+        <v>582</v>
       </c>
       <c r="U492">
         <v>0</v>
@@ -36333,21 +36340,21 @@
         <v>0</v>
       </c>
       <c r="X492">
-        <v>167</v>
+        <v>107.833333</v>
       </c>
       <c r="Y492">
-        <v>-16</v>
+        <v>16.166667</v>
       </c>
     </row>
     <row r="493" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B493" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C493" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D493" t="s">
         <v>97</v>
@@ -36356,13 +36363,13 @@
         <v>9</v>
       </c>
       <c r="F493" t="s">
-        <v>98</v>
+        <v>345</v>
       </c>
       <c r="G493">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J493">
-        <v>876</v>
+        <v>548</v>
       </c>
       <c r="K493">
         <v>0</v>
@@ -36371,11 +36378,26 @@
         <v>0</v>
       </c>
       <c r="M493">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N493" t="s">
         <v>31</v>
       </c>
+      <c r="O493" t="s">
+        <v>51</v>
+      </c>
+      <c r="P493" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q493" t="s">
+        <v>99</v>
+      </c>
+      <c r="R493" t="s">
+        <v>42</v>
+      </c>
+      <c r="T493">
+        <v>846</v>
+      </c>
       <c r="U493">
         <v>0</v>
       </c>
@@ -36386,10 +36408,10 @@
         <v>0</v>
       </c>
       <c r="X493">
-        <v>-176.2</v>
+        <v>167</v>
       </c>
       <c r="Y493">
-        <v>-13.3</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="494" spans="1:25" x14ac:dyDescent="0.35">
@@ -36400,7 +36422,7 @@
         <v>1001</v>
       </c>
       <c r="C494" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D494" t="s">
         <v>97</v>
@@ -36453,7 +36475,7 @@
         <v>1001</v>
       </c>
       <c r="C495" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D495" t="s">
         <v>97</v>
@@ -36506,7 +36528,7 @@
         <v>1001</v>
       </c>
       <c r="C496" t="s">
-        <v>1087</v>
+        <v>1004</v>
       </c>
       <c r="D496" t="s">
         <v>97</v>
@@ -36553,13 +36575,13 @@
     </row>
     <row r="497" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B497" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C497" t="s">
-        <v>1007</v>
+        <v>1087</v>
       </c>
       <c r="D497" t="s">
         <v>97</v>
@@ -36574,7 +36596,7 @@
         <v>61</v>
       </c>
       <c r="J497">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K497">
         <v>0</v>
@@ -36583,26 +36605,11 @@
         <v>0</v>
       </c>
       <c r="M497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N497" t="s">
         <v>31</v>
       </c>
-      <c r="O497" t="s">
-        <v>68</v>
-      </c>
-      <c r="P497" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q497" t="s">
-        <v>99</v>
-      </c>
-      <c r="R497" t="s">
-        <v>42</v>
-      </c>
-      <c r="T497">
-        <v>862</v>
-      </c>
       <c r="U497">
         <v>0</v>
       </c>
@@ -36613,63 +36620,63 @@
         <v>0</v>
       </c>
       <c r="X497">
-        <v>-172.13333299999999</v>
+        <v>-176.2</v>
       </c>
       <c r="Y497">
-        <v>-13.8</v>
+        <v>-13.3</v>
       </c>
     </row>
     <row r="498" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B498" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C498" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D498" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E498">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="F498" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G498">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="J498">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="K498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L498">
         <v>0</v>
       </c>
       <c r="M498">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N498" t="s">
         <v>31</v>
       </c>
       <c r="O498" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="P498" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Q498" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="R498" t="s">
         <v>42</v>
       </c>
       <c r="T498">
-        <v>474</v>
+        <v>862</v>
       </c>
       <c r="U498">
         <v>0</v>
@@ -36678,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="W498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X498">
-        <v>47.5</v>
+        <v>-172.13333299999999</v>
       </c>
       <c r="Y498">
-        <v>15.5</v>
+        <v>-13.8</v>
       </c>
     </row>
     <row r="499" spans="1:25" x14ac:dyDescent="0.35">
@@ -36695,7 +36702,7 @@
         <v>1009</v>
       </c>
       <c r="C499" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D499" t="s">
         <v>37</v>
@@ -36763,7 +36770,7 @@
         <v>1009</v>
       </c>
       <c r="C500" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D500" t="s">
         <v>37</v>
@@ -36831,7 +36838,7 @@
         <v>1009</v>
       </c>
       <c r="C501" t="s">
-        <v>1044</v>
+        <v>1012</v>
       </c>
       <c r="D501" t="s">
         <v>37</v>
@@ -36899,7 +36906,7 @@
         <v>1009</v>
       </c>
       <c r="C502" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D502" t="s">
         <v>37</v>
@@ -36961,37 +36968,31 @@
     </row>
     <row r="503" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B503" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C503" t="s">
-        <v>1015</v>
+        <v>1047</v>
       </c>
       <c r="D503" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E503">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="F503" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G503">
-        <v>202</v>
-      </c>
-      <c r="H503" t="s">
-        <v>209</v>
-      </c>
-      <c r="I503">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="J503">
-        <v>710</v>
+        <v>887</v>
       </c>
       <c r="K503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L503">
         <v>0</v>
@@ -37003,19 +37004,19 @@
         <v>31</v>
       </c>
       <c r="O503" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="P503" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Q503" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="R503" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="T503">
-        <v>199</v>
+        <v>474</v>
       </c>
       <c r="U503">
         <v>0</v>
@@ -37024,24 +37025,24 @@
         <v>0</v>
       </c>
       <c r="W503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X503">
-        <v>23.120999999999999</v>
+        <v>47.5</v>
       </c>
       <c r="Y503">
-        <v>-30.558</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="504" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B504" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C504" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D504" t="s">
         <v>48</v>
@@ -37056,19 +37057,19 @@
         <v>202</v>
       </c>
       <c r="H504" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="I504">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J504">
-        <v>894</v>
+        <v>710</v>
       </c>
       <c r="K504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M504">
         <v>0</v>
@@ -37077,22 +37078,19 @@
         <v>31</v>
       </c>
       <c r="O504" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="P504" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="Q504" t="s">
         <v>49</v>
       </c>
       <c r="R504" t="s">
-        <v>42</v>
-      </c>
-      <c r="S504" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="T504">
-        <v>754</v>
+        <v>199</v>
       </c>
       <c r="U504">
         <v>0</v>
@@ -37104,21 +37102,21 @@
         <v>0</v>
       </c>
       <c r="X504">
-        <v>28.5</v>
+        <v>23.120999999999999</v>
       </c>
       <c r="Y504">
-        <v>-14.33333</v>
+        <v>-30.558</v>
       </c>
     </row>
     <row r="505" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B505" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C505" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D505" t="s">
         <v>48</v>
@@ -37139,10 +37137,10 @@
         <v>14</v>
       </c>
       <c r="J505">
-        <v>716</v>
+        <v>894</v>
       </c>
       <c r="K505">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L505">
         <v>1</v>
@@ -37157,80 +37155,157 @@
         <v>51</v>
       </c>
       <c r="P505" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="Q505" t="s">
         <v>49</v>
       </c>
       <c r="R505" t="s">
+        <v>42</v>
+      </c>
+      <c r="S505" t="s">
+        <v>43</v>
+      </c>
+      <c r="T505">
+        <v>754</v>
+      </c>
+      <c r="U505">
+        <v>0</v>
+      </c>
+      <c r="V505">
+        <v>0</v>
+      </c>
+      <c r="W505">
+        <v>0</v>
+      </c>
+      <c r="X505">
+        <v>28.5</v>
+      </c>
+      <c r="Y505">
+        <v>-14.33333</v>
+      </c>
+    </row>
+    <row r="506" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A506" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D506" t="s">
+        <v>48</v>
+      </c>
+      <c r="E506">
+        <v>2</v>
+      </c>
+      <c r="F506" t="s">
+        <v>49</v>
+      </c>
+      <c r="G506">
+        <v>202</v>
+      </c>
+      <c r="H506" t="s">
+        <v>107</v>
+      </c>
+      <c r="I506">
+        <v>14</v>
+      </c>
+      <c r="J506">
+        <v>716</v>
+      </c>
+      <c r="K506">
+        <v>0</v>
+      </c>
+      <c r="L506">
+        <v>1</v>
+      </c>
+      <c r="M506">
+        <v>0</v>
+      </c>
+      <c r="N506" t="s">
+        <v>31</v>
+      </c>
+      <c r="O506" t="s">
+        <v>51</v>
+      </c>
+      <c r="P506" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q506" t="s">
+        <v>49</v>
+      </c>
+      <c r="R506" t="s">
         <v>241</v>
       </c>
-      <c r="T505">
+      <c r="T506">
         <v>698</v>
       </c>
-      <c r="U505">
-        <v>0</v>
-      </c>
-      <c r="V505">
-        <v>0</v>
-      </c>
-      <c r="W505">
-        <v>0</v>
-      </c>
-      <c r="X505">
+      <c r="U506">
+        <v>0</v>
+      </c>
+      <c r="V506">
+        <v>0</v>
+      </c>
+      <c r="W506">
+        <v>0</v>
+      </c>
+      <c r="X506">
         <v>30.73189</v>
       </c>
-      <c r="Y505">
+      <c r="Y506">
         <v>-20.129123</v>
       </c>
     </row>
-    <row r="506" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C506" t="s">
+    <row r="507" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C507" t="s">
         <v>1022</v>
       </c>
-      <c r="D506" t="s">
+      <c r="D507" t="s">
         <v>61</v>
       </c>
-      <c r="E506">
+      <c r="E507">
         <v>150</v>
       </c>
-      <c r="F506" t="s">
+      <c r="F507" t="s">
         <v>62</v>
       </c>
-      <c r="G506">
+      <c r="G507">
         <v>154</v>
       </c>
-      <c r="H506" t="s">
+      <c r="H507" t="s">
         <v>379</v>
       </c>
-      <c r="I506">
+      <c r="I507">
         <v>830</v>
       </c>
-      <c r="J506">
+      <c r="J507">
         <v>680</v>
       </c>
-      <c r="K506">
-        <v>0</v>
-      </c>
-      <c r="L506">
-        <v>0</v>
-      </c>
-      <c r="M506">
-        <v>0</v>
-      </c>
-      <c r="N506" t="s">
+      <c r="K507">
+        <v>0</v>
+      </c>
+      <c r="L507">
+        <v>0</v>
+      </c>
+      <c r="M507">
+        <v>0</v>
+      </c>
+      <c r="N507" t="s">
         <v>63</v>
       </c>
-      <c r="V506">
-        <v>0</v>
-      </c>
-      <c r="W506">
+      <c r="V507">
+        <v>0</v>
+      </c>
+      <c r="W507">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y506">
-    <sortCondition ref="A2:A506"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y507">
+    <sortCondition ref="A2:A507"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
